--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68306973-12DE-4976-89DD-7AA3E0232335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A097E-461D-4503-8C0C-68B0EA99F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4DAF7740-9351-434E-94C3-D419A1185B93}"/>
+    <workbookView xWindow="-16035" yWindow="-16335" windowWidth="29040" windowHeight="16440" xr2:uid="{4DAF7740-9351-434E-94C3-D419A1185B93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Email</t>
   </si>
@@ -196,13 +196,40 @@
   </si>
   <si>
     <t>R0UKIBXlg7BYU7PQ814kqiMB7MlshqvCdOGSQvEcOxvrH</t>
+  </si>
+  <si>
+    <t>russelhampton001@proton.me</t>
+  </si>
+  <si>
+    <t>eWpEc3NHMERweTlqcFdQTTFYdko6MTpjaQ</t>
+  </si>
+  <si>
+    <t>EaQrRhCZE3XT5fVzuSqkTvPXpSNYhSYb58csgQ4qmXnduhGLp_</t>
+  </si>
+  <si>
+    <t>russel</t>
+  </si>
+  <si>
+    <t>bAjH294TzZ90LZRtG8lkVRquv</t>
+  </si>
+  <si>
+    <t>c4pkX0hvy8qmY5rhpMA163M1vO2SaWFSZeedt55OSLNflXSqpT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAKEt3AEAAAAAIQ%2B7HQSXmLgwSDn5fHn2ipxu5fc%3D7oCTxbKjvo5RZlDDlv67qtI9PmRlOQ0GneWvNlr7FgCCbPVDHE</t>
+  </si>
+  <si>
+    <t>1944392301775597568-16Y0Ivky3unJLkksmrLvn9UJfs33UJ</t>
+  </si>
+  <si>
+    <t>yr2xhEgdo5rEFV20k6L29Opeg2z5MXNsLzQG4vPPxUXub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +283,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0F1419"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -302,6 +335,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,11 +654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846291F5-CB36-4C68-B921-036DD986B6EB}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -829,6 +866,38 @@
         <v>53</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="9">
+        <v>31206817</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A944B023-30C1-44AE-B8D6-722C149C053B}"/>

--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A097E-461D-4503-8C0C-68B0EA99F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A8FD29-FC95-4F1D-AC2E-4235D56C303A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16035" yWindow="-16335" windowWidth="29040" windowHeight="16440" xr2:uid="{4DAF7740-9351-434E-94C3-D419A1185B93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4DAF7740-9351-434E-94C3-D419A1185B93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Email</t>
   </si>
@@ -223,13 +223,97 @@
   </si>
   <si>
     <t>yr2xhEgdo5rEFV20k6L29Opeg2z5MXNsLzQG4vPPxUXub</t>
+  </si>
+  <si>
+    <t>caitlin0184000</t>
+  </si>
+  <si>
+    <t>31218530</t>
+  </si>
+  <si>
+    <t>X3ZnZlltSk1idjNMc1pQODZkMzg6MTpjaQ</t>
+  </si>
+  <si>
+    <t>_LjeNZ-VGIg-JsgEHFPcshZMzl38N0Mj1wNOwdqk_SgZyNblGc</t>
+  </si>
+  <si>
+    <t>6D9965Svw63wGLAcCm0L6ILFY</t>
+  </si>
+  <si>
+    <t>6jYscwdk6lGcLUHtCJw9XKgDC2eO5FLY4B21A6kc6EL8ccN9NS</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAGJb3AEAAAAA7cjsHB1GCg1FGqqMaalroOTBToA%3DHSjCXbvZ99Yp45MpwszB8BXs6Dc23oRmc8al9gn2XXHPdVi4rq</t>
+  </si>
+  <si>
+    <t>1945445690496241664-Qz2ssmXOFGkelVCLrokyqKeOxJBmyA</t>
+  </si>
+  <si>
+    <t>2UMpBLkBQvhtgOvcdXra4SFS6kbrvE5K3MfVBONsGTYPp</t>
+  </si>
+  <si>
+    <t>caitlilnpassalaqua037@proton.me</t>
+  </si>
+  <si>
+    <t>NFVWZDdlTl9vdWFwcGNZcFplZTA6MTpjaQ</t>
+  </si>
+  <si>
+    <t>kxCTCC55fYdovHQ8n1X4ZYbIwOe4kKTRqyBjPgVHex9kc5VYse</t>
+  </si>
+  <si>
+    <t>leticia</t>
+  </si>
+  <si>
+    <t>8bSXvIfr8VeYayUvA6tw9TdPE</t>
+  </si>
+  <si>
+    <t>AxlXDLyREjewTg6XSDKTvXFYu9vsSSgk4DlaQjrjfLgrdc7NEA</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAIBb3AEAAAAAXKhlQ0sssKXeLOs4%2BcNis0ThlVA%3D4ouIhXrRosqChbFThgNEZKE7Yrzh9ECTweod1m48qYreNETJhm</t>
+  </si>
+  <si>
+    <t>1945448595198779392-HDghFnpyWAue4hZ5ZgMbnh7RoMsjRl</t>
+  </si>
+  <si>
+    <t>65xrTqvuABJwu08xwakIjb5dfqc6eyqa6vhd7PldZ4Lu9</t>
+  </si>
+  <si>
+    <t>leticiamagana001@proton.me</t>
+  </si>
+  <si>
+    <t>maskyourid@proton.me</t>
+  </si>
+  <si>
+    <t>M0c4N2w5Wm1HYnNhM1JxaXhDeHM6MTpjaQ</t>
+  </si>
+  <si>
+    <t>YRLJcctNTvqyOcZ54z5BRB9oI6xjal5gpyBKzpM-E55GLuEdK-</t>
+  </si>
+  <si>
+    <t>zZ5poPATpZFw9BUqxA0LmdvIN</t>
+  </si>
+  <si>
+    <t>BIlPgg49CwV2QfqhpI2Rcjy97MgksO6LpGh789qpGyKNfYnHVQ</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAJ5b3AEAAAAAJypaz%2BSk%2Fen6lZqmekTMmuRfQXs%3DvFd6aIVTry6IHfvz2pIyeW0tUXgDyQl4tkrf6SzYOvPAm1ISRf</t>
+  </si>
+  <si>
+    <t>1945450698990288896-NA3vUcChZSk1PVbX6KeEChVGLrPoET</t>
+  </si>
+  <si>
+    <t>hZx5HDkqQfNSjWW1TjM11NrdQd6mG0OtWD01sJU3C91CN</t>
+  </si>
+  <si>
+    <t>maskyourid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +373,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0C0C14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,6 +429,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,11 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846291F5-CB36-4C68-B921-036DD986B6EB}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -898,6 +989,102 @@
         <v>62</v>
       </c>
     </row>
+    <row r="8" spans="1:10" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9">
+        <v>31218560</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="9">
+        <v>31218590</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A944B023-30C1-44AE-B8D6-722C149C053B}"/>
